--- a/NewHeadwayInt4HU/NewHeadwayInt4HU.xlsx
+++ b/NewHeadwayInt4HU/NewHeadwayInt4HU.xlsx
@@ -24986,10 +24986,7 @@
         <v>[sound:NewHeadwayInt4HU400327A.mp3]</v>
       </c>
       <c r="F328" s="1"/>
-      <c r="G328" s="1">
-        <f>Táblázat2[[#This Row],[ExampleHTML]]</f>
-        <v>0</v>
-      </c>
+      <c r="G328" s="1"/>
       <c r="H328" s="1" t="str">
         <f t="shared" si="11"/>
         <v>[sound:NewHeadwayInt4HU400327B.mp3]</v>
@@ -54763,10 +54760,7 @@
         <v>[sound:NewHeadwayInt4HU401132A.mp3]</v>
       </c>
       <c r="F1133" s="1"/>
-      <c r="G1133" s="1">
-        <f>Táblázat2[[#This Row],[ExampleHTML]]</f>
-        <v>0</v>
-      </c>
+      <c r="G1133" s="1"/>
       <c r="H1133" s="1" t="str">
         <f t="shared" si="35"/>
         <v>[sound:NewHeadwayInt4HU401132B.mp3]</v>
